--- a/patient/patientdoc.xlsx
+++ b/patient/patientdoc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="8280" windowWidth="25040" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="-320" yWindow="3840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>TestCase #</t>
   </si>
@@ -75,40 +75,46 @@
     <t>6. put postal</t>
   </si>
   <si>
-    <t>7. put area code</t>
-  </si>
-  <si>
-    <t>8. put phone</t>
-  </si>
-  <si>
-    <t>9. put chartnumber</t>
-  </si>
-  <si>
     <t>sn22222</t>
   </si>
   <si>
-    <t>10. put firstname</t>
-  </si>
-  <si>
     <t>sue</t>
   </si>
   <si>
-    <t>11. put middlename</t>
-  </si>
-  <si>
     <t>ah</t>
   </si>
   <si>
-    <t>12. put lastname</t>
-  </si>
-  <si>
     <t>beeta</t>
   </si>
   <si>
-    <t>13. put email</t>
-  </si>
-  <si>
     <t>sue@gmail.com</t>
+  </si>
+  <si>
+    <t>7. select country</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>8. put area code</t>
+  </si>
+  <si>
+    <t>9. put phone</t>
+  </si>
+  <si>
+    <t>10. put chartnumber</t>
+  </si>
+  <si>
+    <t>11. put firstname</t>
+  </si>
+  <si>
+    <t>12. put middlename</t>
+  </si>
+  <si>
+    <t>13. put lastname</t>
+  </si>
+  <si>
+    <t>14. put email</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -604,10 +610,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3">
-        <v>704</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -615,10 +621,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="C9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3">
-        <v>2222222</v>
+        <v>704</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -626,10 +632,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2222222</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -637,10 +643,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -648,10 +654,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -659,10 +665,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -670,18 +676,29 @@
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
       <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
